--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>2.906557506074445</v>
+        <v>1.798751662325333</v>
       </c>
       <c r="R2">
-        <v>26.15901755467</v>
+        <v>16.188764960928</v>
       </c>
       <c r="S2">
-        <v>0.002644238473235881</v>
+        <v>0.001540421442204388</v>
       </c>
       <c r="T2">
-        <v>0.002644238473235881</v>
+        <v>0.001540421442204389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>955.9982369876706</v>
+        <v>952.2813885861751</v>
       </c>
       <c r="R3">
-        <v>8603.984132889036</v>
+        <v>8570.532497275575</v>
       </c>
       <c r="S3">
-        <v>0.86971866660316</v>
+        <v>0.8155181733613867</v>
       </c>
       <c r="T3">
-        <v>0.86971866660316</v>
+        <v>0.8155181733613867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>9.660304036417223</v>
+        <v>55.62832610926755</v>
       </c>
       <c r="R4">
-        <v>86.94273632775501</v>
+        <v>500.654934983408</v>
       </c>
       <c r="S4">
-        <v>0.008788454225614089</v>
+        <v>0.04763918673569256</v>
       </c>
       <c r="T4">
-        <v>0.008788454225614088</v>
+        <v>0.04763918673569257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.471212</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H5">
-        <v>7.413636</v>
+        <v>71.194456</v>
       </c>
       <c r="I5">
-        <v>0.0913994965852216</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J5">
-        <v>0.0913994965852216</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>0.3014895114746666</v>
+        <v>0.7121027699022223</v>
       </c>
       <c r="R5">
-        <v>2.713405603272</v>
+        <v>6.40892492912</v>
       </c>
       <c r="S5">
-        <v>0.0002742798530055939</v>
+        <v>0.0006098331408308225</v>
       </c>
       <c r="T5">
-        <v>0.0002742798530055938</v>
+        <v>0.0006098331408308225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>99.16316495981732</v>
+        <v>0.187307984752</v>
       </c>
       <c r="R6">
-        <v>892.468484638356</v>
+        <v>1.685771862768</v>
       </c>
       <c r="S6">
-        <v>0.09021361365346722</v>
+        <v>0.0001604074881771465</v>
       </c>
       <c r="T6">
-        <v>0.09021361365346722</v>
+        <v>0.0001604074881771465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>1.002037750345333</v>
+        <v>99.16316495981732</v>
       </c>
       <c r="R7">
-        <v>9.018339753108</v>
+        <v>892.468484638356</v>
       </c>
       <c r="S7">
-        <v>0.0009116030787487874</v>
+        <v>0.08492170919440999</v>
       </c>
       <c r="T7">
-        <v>0.0009116030787487873</v>
+        <v>0.08492170919440999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7137869999999999</v>
+        <v>2.471212</v>
       </c>
       <c r="H8">
-        <v>2.141361</v>
+        <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.02639990922230694</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J8">
-        <v>0.02639990922230694</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.08708248985799999</v>
+        <v>5.792700502738666</v>
       </c>
       <c r="R8">
-        <v>0.783742408722</v>
+        <v>52.13430452464799</v>
       </c>
       <c r="S8">
-        <v>7.922322869802503E-05</v>
+        <v>0.004960773768598679</v>
       </c>
       <c r="T8">
-        <v>7.922322869802502E-05</v>
+        <v>0.00496077376859868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7137869999999999</v>
+        <v>2.471212</v>
       </c>
       <c r="H9">
-        <v>2.141361</v>
+        <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.02639990922230694</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J9">
-        <v>0.02639990922230694</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>28.64237387450899</v>
+        <v>0.07415283474666667</v>
       </c>
       <c r="R9">
-        <v>257.7813648705809</v>
+        <v>0.6673755127200001</v>
       </c>
       <c r="S9">
-        <v>0.02605737777611447</v>
+        <v>6.350327231739021E-05</v>
       </c>
       <c r="T9">
-        <v>0.02605737777611447</v>
+        <v>6.350327231739021E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H10">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4054843333333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N10">
-        <v>1.216453</v>
+        <v>0.227388</v>
       </c>
       <c r="O10">
-        <v>0.009973830412717882</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P10">
-        <v>0.00997383041271788</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q10">
-        <v>0.289429445837</v>
+        <v>0.08706406074799998</v>
       </c>
       <c r="R10">
-        <v>2.604865012533</v>
+        <v>0.7835765467319999</v>
       </c>
       <c r="S10">
-        <v>0.0002633082174944362</v>
+        <v>7.456023465086184E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002633082174944362</v>
+        <v>7.456023465086184E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02836866666666667</v>
+        <v>1.148663</v>
       </c>
       <c r="H11">
-        <v>0.085106</v>
+        <v>3.445989</v>
       </c>
       <c r="I11">
-        <v>0.001049234890461559</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J11">
-        <v>0.001049234890461559</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1220006666666667</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N11">
-        <v>0.366002</v>
+        <v>120.382021</v>
       </c>
       <c r="O11">
-        <v>0.003000890193633104</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P11">
-        <v>0.003000890193633103</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q11">
-        <v>0.003460996245777778</v>
+        <v>46.09279112930766</v>
       </c>
       <c r="R11">
-        <v>0.031148966212</v>
+        <v>414.835120163769</v>
       </c>
       <c r="S11">
-        <v>3.148638693603796E-06</v>
+        <v>0.03947311086559088</v>
       </c>
       <c r="T11">
-        <v>3.148638693603795E-06</v>
+        <v>0.03947311086559087</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02836866666666667</v>
+        <v>1.148663</v>
       </c>
       <c r="H12">
-        <v>0.085106</v>
+        <v>3.445989</v>
       </c>
       <c r="I12">
-        <v>0.001049234890461559</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J12">
-        <v>0.001049234890461559</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.12734033333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N12">
-        <v>120.382021</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q12">
-        <v>1.138359142136222</v>
+        <v>2.692549541511333</v>
       </c>
       <c r="R12">
-        <v>10.245232279226</v>
+        <v>24.232945873602</v>
       </c>
       <c r="S12">
-        <v>0.001035621360907385</v>
+        <v>0.002305855296655999</v>
       </c>
       <c r="T12">
-        <v>0.001035621360907385</v>
+        <v>0.002305855296655999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.148663</v>
+      </c>
+      <c r="H13">
+        <v>3.445989</v>
+      </c>
+      <c r="I13">
+        <v>0.04188304383987305</v>
+      </c>
+      <c r="J13">
+        <v>0.04188304383987305</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09002</v>
+      </c>
+      <c r="O13">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P13">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q13">
+        <v>0.03446754775333333</v>
+      </c>
+      <c r="R13">
+        <v>0.31020792978</v>
+      </c>
+      <c r="S13">
+        <v>2.951744297531349E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.951744297531349E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07412966666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.222389</v>
+      </c>
+      <c r="I14">
+        <v>0.002702947756509242</v>
+      </c>
+      <c r="J14">
+        <v>0.002702947756509243</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07579599999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.227388</v>
+      </c>
+      <c r="O14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="P14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="Q14">
+        <v>0.005618732214666666</v>
+      </c>
+      <c r="R14">
+        <v>0.050568589932</v>
+      </c>
+      <c r="S14">
+        <v>4.811790178021611E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.811790178021612E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07412966666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.222389</v>
+      </c>
+      <c r="I15">
+        <v>0.002702947756509242</v>
+      </c>
+      <c r="J15">
+        <v>0.002702947756509243</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N15">
+        <v>120.382021</v>
+      </c>
+      <c r="O15">
+        <v>0.9424604146848589</v>
+      </c>
+      <c r="P15">
+        <v>0.9424604146848587</v>
+      </c>
+      <c r="Q15">
+        <v>2.974626363129889</v>
+      </c>
+      <c r="R15">
+        <v>26.771637268169</v>
+      </c>
+      <c r="S15">
+        <v>0.002547421263471209</v>
+      </c>
+      <c r="T15">
+        <v>0.002547421263471209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.02836866666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.085106</v>
-      </c>
-      <c r="I13">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="J13">
-        <v>0.001049234890461559</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4054843333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.216453</v>
-      </c>
-      <c r="O13">
-        <v>0.009973830412717882</v>
-      </c>
-      <c r="P13">
-        <v>0.00997383041271788</v>
-      </c>
-      <c r="Q13">
-        <v>0.01150304989088889</v>
-      </c>
-      <c r="R13">
-        <v>0.103527449018</v>
-      </c>
-      <c r="S13">
-        <v>1.046489086057021E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.046489086057021E-05</v>
+      <c r="G16">
+        <v>0.07412966666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.222389</v>
+      </c>
+      <c r="I16">
+        <v>0.002702947756509242</v>
+      </c>
+      <c r="J16">
+        <v>0.002702947756509243</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.344072666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.032217999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="P16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="Q16">
+        <v>0.1737653254224444</v>
+      </c>
+      <c r="R16">
+        <v>1.563887928802</v>
+      </c>
+      <c r="S16">
+        <v>0.0001488097766905324</v>
+      </c>
+      <c r="T16">
+        <v>0.0001488097766905324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.07412966666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.222389</v>
+      </c>
+      <c r="I17">
+        <v>0.002702947756509242</v>
+      </c>
+      <c r="J17">
+        <v>0.002702947756509243</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09002</v>
+      </c>
+      <c r="O17">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P17">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q17">
+        <v>0.002224384197777778</v>
+      </c>
+      <c r="R17">
+        <v>0.02001945778</v>
+      </c>
+      <c r="S17">
+        <v>1.904926169479064E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.904926169479065E-06</v>
       </c>
     </row>
   </sheetData>
